--- a/src/storage/ad-coupon/sqb.xlsx
+++ b/src/storage/ad-coupon/sqb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
   <si>
     <t>品牌</t>
   </si>
@@ -46,13 +46,16 @@
     <t>量级</t>
   </si>
   <si>
-    <t>活动页</t>
+    <t>百草味</t>
+  </si>
+  <si>
+    <t>299-215</t>
   </si>
   <si>
     <t>通投</t>
   </si>
   <si>
-    <t>pages/me/storeBrand/storeBrand?channel=i-tt_sqbttbcw1124&amp;brand_id=18</t>
+    <t>pages/me/storeBrand/storeBrand?channel=i-tt_sqbttbcw120102&amp;brand_id=18</t>
   </si>
   <si>
     <t>是</t>
@@ -67,11 +70,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -93,13 +96,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -118,14 +114,6 @@
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -145,6 +133,82 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -154,23 +218,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,67 +234,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,7 +249,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFE1B2"/>
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -265,13 +261,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -283,67 +405,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -355,91 +429,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,15 +454,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,17 +497,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -532,6 +508,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,152 +551,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -713,19 +709,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1049,8 +1039,8 @@
   <sheetPr/>
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelRow="1"/>
@@ -1100,29 +1090,31 @@
         <v>10</v>
       </c>
       <c r="B2" s="4">
-        <v>15298937</v>
-      </c>
-      <c r="C2" s="3"/>
+        <v>15323002</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="D2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="8">
+      <c r="E2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="3">
         <v>5</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" s="5">
-        <v>44174</v>
+        <v>44179</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J2" s="3">
-        <v>50</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/src/storage/ad-coupon/sqb.xlsx
+++ b/src/storage/ad-coupon/sqb.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24880" windowHeight="8160"/>
+    <workbookView windowWidth="26840" windowHeight="9960"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
   <si>
     <t>品牌</t>
   </si>
@@ -46,35 +46,132 @@
     <t>量级</t>
   </si>
   <si>
+    <t>蓝月亮</t>
+  </si>
+  <si>
+    <t>199-110</t>
+  </si>
+  <si>
+    <t>通投</t>
+  </si>
+  <si>
+    <t>pages/me/storeBrand/storeBrand?channel=i-nx_sqbnxlyl1130&amp;brand_id=20</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>女性</t>
+  </si>
+  <si>
+    <t>pages/me/storeBrand/storeBrand?channel=i-nx_sqbnxlyl1203&amp;brand_id=20</t>
+  </si>
+  <si>
+    <t>pages/me/storeBrand/storeBrand?channel=i-tt_sqbttlyl1124&amp;brand_id=20</t>
+  </si>
+  <si>
+    <t>维达</t>
+  </si>
+  <si>
+    <t>199-115</t>
+  </si>
+  <si>
+    <t>人群包</t>
+  </si>
+  <si>
+    <t>pages/me/storeBrand/storeBrand?channel=i-tt_sqbcswd-199-115&amp;brand_id=3</t>
+  </si>
+  <si>
+    <t>pages/me/storeBrand/storeBrand?channel=i-rqb_sqbrqbwd1130&amp;brand_id=3</t>
+  </si>
+  <si>
+    <t>pages/me/storeBrand/storeBrand?channel=i-rqb_sqbrqbwd1203&amp;brand_id=3</t>
+  </si>
+  <si>
+    <t>pages/me/storeBrand/storeBrand?channel=i-rqb_sqbrqbwd120101&amp;brand_id=3</t>
+  </si>
+  <si>
+    <t>香飘飘</t>
+  </si>
+  <si>
+    <t>pages/me/storeBrand/storeBrand?channel=i-tt_sqbttxpp1124&amp;brand_id=4</t>
+  </si>
+  <si>
+    <t>收钱吧女性</t>
+  </si>
+  <si>
+    <t>pages/me/storeBrand/storeBrand?channel=i-nx_sqbnxxpp1204&amp;brand_id=4</t>
+  </si>
+  <si>
     <t>百草味</t>
   </si>
   <si>
     <t>299-215</t>
   </si>
   <si>
-    <t>通投</t>
+    <t>pages/me/storeBrand/storeBrand?channel=i-tt_sqbttbcw1124&amp;brand_id=18</t>
+  </si>
+  <si>
+    <t>pages/me/storeBrand/storeBrand?channel=i-tt_sqbttbcw1130&amp;brand_id=18</t>
   </si>
   <si>
     <t>pages/me/storeBrand/storeBrand?channel=i-tt_sqbttbcw120102&amp;brand_id=18</t>
   </si>
   <si>
-    <t>是</t>
-  </si>
-  <si>
-    <t>否</t>
+    <t>温碧泉</t>
+  </si>
+  <si>
+    <t>199-130</t>
+  </si>
+  <si>
+    <t>pages/me/storeBrand/storeBrand?channel=i-nx_sqbnxwbq1130&amp;brand_id=36</t>
+  </si>
+  <si>
+    <t>pages/me/storeBrand/storeBrand?channel=i-nx_sqbnxwbq1203&amp;brand_id=36</t>
+  </si>
+  <si>
+    <t>百雀羚</t>
+  </si>
+  <si>
+    <t>169-130</t>
+  </si>
+  <si>
+    <t>pages/me/storeBrand/storeBrand?channel=i-nx_sqbnxbql1130&amp;brand_id=12</t>
+  </si>
+  <si>
+    <t>pages/me/storeBrand/storeBrand?channel=i-nx_sqbnxbql1203&amp;brand_id=12</t>
+  </si>
+  <si>
+    <t>认养一头牛</t>
+  </si>
+  <si>
+    <t>110.1-110</t>
+  </si>
+  <si>
+    <t>pages/me/storeBrand/storeBrand?channel=i-nx_sqbnxryytn1130&amp;brand_id=49</t>
+  </si>
+  <si>
+    <t>法兰琳卡</t>
+  </si>
+  <si>
+    <t>pages/me/storeBrand/storeBrand?channel=i-nx_sqbnxfllk1203&amp;brand_id=9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -96,6 +193,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -104,16 +214,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -126,7 +237,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -134,14 +245,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -158,28 +269,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,7 +292,51 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,37 +349,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -249,7 +359,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor rgb="FFFFC8B8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -261,19 +425,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -285,67 +509,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -357,85 +539,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,17 +577,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -497,30 +616,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -528,6 +623,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,85 +661,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -638,65 +748,65 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -715,8 +825,41 @@
     <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1037,13 +1180,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
     <col min="2" max="2" width="12.6333333333333" customWidth="1"/>
     <col min="3" max="3" width="11.8" style="1" customWidth="1"/>
@@ -1053,7 +1196,7 @@
     <col min="8" max="8" width="22.3583333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" customHeight="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1075,7 +1218,7 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
@@ -1085,12 +1228,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="4">
-        <v>15323002</v>
+        <v>15313944</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>11</v>
@@ -1101,23 +1244,588 @@
       <c r="E2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="4">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H2" s="5">
-        <v>44179</v>
-      </c>
-      <c r="I2" s="3" t="s">
+        <v>44182</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>15</v>
       </c>
       <c r="J2" s="3">
+        <v>200</v>
+      </c>
+      <c r="K2" s="17"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="6">
+        <v>15322934</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="4">
+        <v>5</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="5">
+        <v>44182</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="3">
+        <v>165</v>
+      </c>
+      <c r="K3" s="17"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="6">
+        <v>15298956</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="4">
+        <v>5</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="5">
+        <v>44182</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="3">
+        <v>165</v>
+      </c>
+      <c r="K4" s="17"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="4">
+        <v>15276669</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="3">
+        <v>5</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="5">
+        <v>44182</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="3">
+        <v>150</v>
+      </c>
+      <c r="K5" s="17"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="4">
+        <v>15313798</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="4">
+        <v>5</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="5">
+        <v>44182</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="3">
+        <v>165</v>
+      </c>
+      <c r="K6" s="17"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="4">
+        <v>15322889</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="4">
+        <v>5</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="5">
+        <v>44182</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="3">
+        <v>150</v>
+      </c>
+      <c r="K7" s="17"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="4">
+        <v>15322977</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="4">
+        <v>5</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="5">
+        <v>44182</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="3">
+        <v>150</v>
+      </c>
+      <c r="K8" s="17"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="4">
+        <v>15299001</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="4">
+        <v>5</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="5">
+        <v>44182</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="3">
+        <v>100</v>
+      </c>
+      <c r="K9" s="17"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="6">
+        <v>15323330</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="4">
+        <v>5</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="5">
+        <v>44182</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="3">
         <v>90</v>
       </c>
+      <c r="K10" s="17"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="9">
+        <v>15298937</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="11">
+        <v>5</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="10">
+        <v>44182</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="8">
+        <v>90</v>
+      </c>
+      <c r="K11" s="17"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="11">
+        <v>15314223</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="8">
+        <v>5</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="10">
+        <v>44182</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="8">
+        <v>50</v>
+      </c>
+      <c r="K12" s="17"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="11">
+        <v>15323002</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="8">
+        <v>5</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="10">
+        <v>44182</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="8">
+        <v>90</v>
+      </c>
+      <c r="K13" s="17"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="11">
+        <v>15313943</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="11">
+        <v>5</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="10">
+        <v>44182</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="8">
+        <v>140</v>
+      </c>
+      <c r="K14" s="17"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="12">
+        <v>15322938</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="11">
+        <v>5</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="10">
+        <v>44182</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="8">
+        <v>140</v>
+      </c>
+      <c r="K15" s="17"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="11">
+        <v>15313942</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="11">
+        <v>5</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="10">
+        <v>44182</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="8">
+        <v>140</v>
+      </c>
+      <c r="K16" s="17"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="11">
+        <v>15322937</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="11">
+        <v>5</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="10">
+        <v>44182</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="8">
+        <v>140</v>
+      </c>
+      <c r="K17" s="17"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="11">
+        <v>15314036</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="11">
+        <v>5</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="10">
+        <v>44182</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="8">
+        <v>150</v>
+      </c>
+      <c r="K18" s="17"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="8">
+        <v>15322986</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="11">
+        <v>5</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="10">
+        <v>44182</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="8">
+        <v>140</v>
+      </c>
+      <c r="K19" s="17"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K2:K4"/>
+  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>

--- a/src/storage/ad-coupon/sqb.xlsx
+++ b/src/storage/ad-coupon/sqb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
   <si>
     <t>品牌</t>
   </si>
@@ -92,6 +92,12 @@
   </si>
   <si>
     <t>pages/me/storeBrand/storeBrand?channel=i-rqb_sqbrqbwd120101&amp;brand_id=3</t>
+  </si>
+  <si>
+    <t>pages/me/storeBrand/storeBrand?channel=i-rqb_sqbwd1216&amp;brand_id=3</t>
+  </si>
+  <si>
+    <t>pages/me/storeBrand/storeBrand?channel=i-rqb_sqbwd121601&amp;brand_id=3</t>
   </si>
   <si>
     <t>香飘飘</t>
@@ -166,12 +172,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -206,17 +212,25 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF595959"/>
+      <name val="Helvetica Neue For Number"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -228,6 +242,89 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -236,32 +333,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,13 +348,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -290,65 +356,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -359,7 +372,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC8B8"/>
+        <fgColor rgb="FFFFE1B2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,73 +426,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,7 +528,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,31 +546,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,55 +558,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,8 +575,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,45 +586,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -642,6 +616,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -656,157 +639,187 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -831,19 +844,7 @@
     <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -852,13 +853,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1180,10 +1178,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -1218,7 +1216,7 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
@@ -1228,7 +1226,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -1251,7 +1249,7 @@
         <v>14</v>
       </c>
       <c r="H2" s="5">
-        <v>44182</v>
+        <v>44183</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>15</v>
@@ -1259,9 +1257,8 @@
       <c r="J2" s="3">
         <v>200</v>
       </c>
-      <c r="K2" s="17"/>
-    </row>
-    <row r="3" spans="1:11">
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -1284,7 +1281,7 @@
         <v>14</v>
       </c>
       <c r="H3" s="5">
-        <v>44182</v>
+        <v>44183</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>15</v>
@@ -1292,9 +1289,8 @@
       <c r="J3" s="3">
         <v>165</v>
       </c>
-      <c r="K3" s="17"/>
-    </row>
-    <row r="4" spans="1:11">
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -1307,7 +1303,7 @@
       <c r="D4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="10" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="4">
@@ -1317,7 +1313,7 @@
         <v>14</v>
       </c>
       <c r="H4" s="5">
-        <v>44182</v>
+        <v>44183</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>15</v>
@@ -1325,9 +1321,8 @@
       <c r="J4" s="3">
         <v>165</v>
       </c>
-      <c r="K4" s="17"/>
-    </row>
-    <row r="5" spans="1:11">
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
@@ -1350,7 +1345,7 @@
         <v>14</v>
       </c>
       <c r="H5" s="5">
-        <v>44182</v>
+        <v>44183</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>15</v>
@@ -1358,9 +1353,8 @@
       <c r="J5" s="3">
         <v>150</v>
       </c>
-      <c r="K5" s="17"/>
-    </row>
-    <row r="6" spans="1:11">
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
@@ -1383,7 +1377,7 @@
         <v>14</v>
       </c>
       <c r="H6" s="5">
-        <v>44182</v>
+        <v>44183</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>15</v>
@@ -1391,9 +1385,8 @@
       <c r="J6" s="3">
         <v>165</v>
       </c>
-      <c r="K6" s="17"/>
-    </row>
-    <row r="7" spans="1:11">
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
@@ -1416,7 +1409,7 @@
         <v>14</v>
       </c>
       <c r="H7" s="5">
-        <v>44182</v>
+        <v>44183</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>15</v>
@@ -1424,9 +1417,8 @@
       <c r="J7" s="3">
         <v>150</v>
       </c>
-      <c r="K7" s="17"/>
-    </row>
-    <row r="8" spans="1:11">
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
@@ -1449,7 +1441,7 @@
         <v>14</v>
       </c>
       <c r="H8" s="5">
-        <v>44182</v>
+        <v>44183</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>15</v>
@@ -1457,375 +1449,424 @@
       <c r="J8" s="3">
         <v>150</v>
       </c>
-      <c r="K8" s="17"/>
-    </row>
-    <row r="9" spans="1:11">
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B9" s="4">
-        <v>15299001</v>
+        <v>15348500</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="4">
+        <v>5</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="5">
+        <v>44183</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" ht="15.2" spans="1:10">
+      <c r="A10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="4">
+        <v>15348499</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E10" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="4">
-        <v>5</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="5">
-        <v>44182</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="F10" s="4">
+        <v>5</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="5">
+        <v>44183</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="4">
+        <v>15299001</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="4">
+        <v>5</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="5">
+        <v>44183</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="3">
         <v>100</v>
       </c>
-      <c r="K9" s="17"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="6">
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="6">
         <v>15323330</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="4">
-        <v>5</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="5">
-        <v>44182</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="D12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="4">
+        <v>5</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="5">
+        <v>44183</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="3">
         <v>90</v>
       </c>
-      <c r="K10" s="17"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="9">
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="8">
         <v>15298937</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="C13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E13" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="4">
+        <v>5</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="5">
+        <v>44183</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="11">
-        <v>5</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="10">
-        <v>44182</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" s="8">
+      <c r="B14" s="4">
+        <v>15314223</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="3">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="5">
+        <v>44183</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="4">
+        <v>15323002</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="3">
+        <v>5</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="5">
+        <v>44183</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="3">
         <v>90</v>
       </c>
-      <c r="K11" s="17"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="11">
-        <v>15314223</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="8">
-        <v>5</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="10">
-        <v>44182</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" s="8">
-        <v>50</v>
-      </c>
-      <c r="K12" s="17"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="11">
-        <v>15323002</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="8">
-        <v>5</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="10">
-        <v>44182</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J13" s="8">
-        <v>90</v>
-      </c>
-      <c r="K13" s="17"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="11">
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="4">
         <v>15313943</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="10" t="s">
+      <c r="C16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="4">
+        <v>5</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="5">
+        <v>44183</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="11">
-        <v>5</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="10">
-        <v>44182</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14" s="8">
+      <c r="B17" s="6">
+        <v>15322938</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="4">
+        <v>5</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="5">
+        <v>44183</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="3">
         <v>140</v>
       </c>
-      <c r="K14" s="17"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="12">
-        <v>15322938</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="10" t="s">
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="4">
+        <v>15313942</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="4">
+        <v>5</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="5">
+        <v>44183</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="4">
+        <v>15322937</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="4">
+        <v>5</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="5">
+        <v>44183</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="4">
+        <v>15314036</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="4">
+        <v>5</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="5">
+        <v>44183</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="3">
+        <v>15322986</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="11">
-        <v>5</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="10">
-        <v>44182</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J15" s="8">
+      <c r="D21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="4">
+        <v>5</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="5">
+        <v>44183</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="3">
         <v>140</v>
       </c>
-      <c r="K15" s="17"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="11">
-        <v>15313942</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="11">
-        <v>5</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="10">
-        <v>44182</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J16" s="8">
-        <v>140</v>
-      </c>
-      <c r="K16" s="17"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="11">
-        <v>15322937</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" s="11">
-        <v>5</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" s="10">
-        <v>44182</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J17" s="8">
-        <v>140</v>
-      </c>
-      <c r="K17" s="17"/>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="11">
-        <v>15314036</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" s="11">
-        <v>5</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" s="10">
-        <v>44182</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J18" s="8">
-        <v>150</v>
-      </c>
-      <c r="K18" s="17"/>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="8">
-        <v>15322986</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" s="11">
-        <v>5</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" s="10">
-        <v>44182</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="J19" s="8">
-        <v>140</v>
-      </c>
-      <c r="K19" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="K2:K4"/>
-  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
